--- a/models/model08-02-16.xlsx
+++ b/models/model08-02-16.xlsx
@@ -1725,21 +1725,25 @@
     o1 = session.openOdb(name=home+'/Job-1.odb')
     odb = session.odbs[home+'/Job-1.odb']
     scratchOdb = session.ScratchOdb(odb)
-    scratchOdb.rootAssembly.DatumCsysByThreePoints(name='CSYS-1', 
-        coordSysType=CYLINDRICAL, origin=(0.0, 0.0, 0.0), point1=(1.0, 0.0, 0.0), 
-        point2=(0.0, 1.0, 0.0))
+    scratchOdb.rootAssembly.DatumCsysByThreePoints(name='CSYS-1', coordSysType=CYLINDRICAL, origin=(0.0, 0.0, 0.0), point1=(1.0, 0.0, 0.0), point2=(0.0, 1.0, 0.0))
     dtm = session.scratchOdbs[home+'/Job-1.odb'].rootAssembly.datumCsyses['CSYS-1']
     session.viewports['Viewport: 1'].setValues(displayedObject=o1)
     session.viewports['Viewport: 1'].odbDisplay.display.setValues(plotState=(CONTOURS_ON_DEF, ))
-    session.viewports['Viewport: 1'].odbDisplay.setPrimaryVariable(
-        variableLabel='U', outputPosition=NODAL, refinement=(COMPONENT, 'U1'), )
-    session.viewports['Viewport: 1'].odbDisplay.basicOptions.setValues(
-        transformationType=USER_SPECIFIED, datumCsys=dtm)
+    session.viewports['Viewport: 1'].odbDisplay.setPrimaryVariable(variableLabel='U', outputPosition=NODAL, refinement=(COMPONENT, 'U1'), )
+    session.viewports['Viewport: 1'].odbDisplay.basicOptions.setValues(transformationType=USER_SPECIFIED, datumCsys=dtm)
     session.xyReportOptions.setValues(numberFormat=SCIENTIFIC)
     # to file 
+    # U plot
+    session.printOptions.setValues(vpDecorations=OFF, compass=ON)
+    session.pngOptions.setValues(imageSize=(2000, 1500))
     session.viewports['Viewport: 1'].view.setValues(session.views['Iso'])
-    session.pngOptions.setValues(imageSize=(2000, 1500))
-    session.printToFile(fileName= home+'/plot', format=PNG, canvasObjects=(session.viewports['Viewport: 1'], ))
+    session.printToFile(fileName= home+'/uplot', format=PNG, canvasObjects=(session.viewports['Viewport: 1'], ))
+    # S plot
+    leaf = dgo.LeafFromPartInstance(partInstanceName=('PART-1', ))
+    session.viewports['Viewport: 1'].odbDisplay.setPrimaryVariable(variableLabel='S', outputPosition=INTEGRATION_POINT, refinement=(INVARIANT, 'Mises'), )
+    session.viewports['Viewport: 1'].odbDisplay.displayGroup.replace(leaf=leaf)
+    session.printToFile(fileName= home+'/splot', format=PNG, canvasObjects=(session.viewports['Viewport: 1'], ))
+    # obj file
     session.writeOBJFile(fileName=home+"/tmp_model.obj",canvasObjects= (session.viewports['Viewport: 1'], ))
     # exit()
     # pth = create_path()
@@ -2988,7 +2992,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B2:B13"/>
+      <selection activeCell="B12" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="79.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
